--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/VIRGINIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/VIRGINIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1016"/>
+  <dimension ref="A1:D1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C67">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C73">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C81">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C107">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C117">
@@ -2107,7 +2107,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C140">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C150">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C158">
@@ -2525,12 +2525,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C165">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C174">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C182">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C186">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C200">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C217">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C220">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C226">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C233">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C244">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C253">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C255">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C260">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C268">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C272">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C275">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C283">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C287">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C293">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C298">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C315">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C320">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C328">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C331">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C336">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C345">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C348">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C352">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C355">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C363">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C368">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C378">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C382">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C384">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C388">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C392">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C395">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C400">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C453">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C480">
@@ -6829,7 +6829,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C491">
@@ -7055,7 +7055,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C508">
@@ -7081,7 +7081,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C510">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C513">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C518">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C526">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C531">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C534">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C545">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C549">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C569">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C582">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C597">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C612">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C647">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C657">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C667">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C675">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C684">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C687">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C690">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C694">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C698">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C708">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C714">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C717">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C719">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C735">
@@ -10034,7 +10034,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C736">
@@ -10112,7 +10112,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C742">
@@ -10125,7 +10125,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C743">
@@ -10164,7 +10164,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C746">
@@ -10203,7 +10203,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C749">
@@ -10382,7 +10382,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C762">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C768">
@@ -10564,7 +10564,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C776">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C781">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C784">
@@ -10681,7 +10681,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C785">
@@ -10733,7 +10733,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C789">
@@ -10772,7 +10772,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C792">
@@ -10785,7 +10785,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C793">
@@ -10798,7 +10798,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C794">
@@ -11164,7 +11164,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C821">
@@ -11494,7 +11494,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C846">
@@ -11694,7 +11694,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C864">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C867">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C876">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C886">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C887">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C900">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C901">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C904">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C905">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C910">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C914">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C920">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C927">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C929">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C932">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C941">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C944">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C950">
@@ -13220,7 +13220,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C978">
@@ -13334,7 +13334,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C986">
@@ -13347,7 +13347,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C987">
@@ -13438,7 +13438,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C994">
@@ -13464,7 +13464,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C996">
@@ -13477,7 +13477,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C997">
@@ -13490,7 +13490,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C998">
@@ -13555,7 +13555,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1003">
@@ -13568,7 +13568,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1004">
@@ -13607,7 +13607,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1007">
@@ -13646,7 +13646,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1010">
@@ -13654,41 +13654,6 @@
       </c>
       <c r="D1010">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
